--- a/benchmarks/all_results.xlsx
+++ b/benchmarks/all_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergioacamelogomez/Dropbox/covid-optimization/benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA60E3A9-F9D6-6E4A-9168-401569EA3BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB52DBD3-8BD3-BB40-9751-49D90079FA38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="32260" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50420" yWindow="3960" windowWidth="23000" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>heuristic</t>
   </si>
@@ -61,44 +61,14 @@
     <t>homogeneous</t>
   </si>
   <si>
-    <t>icus_t</t>
-  </si>
-  <si>
-    <t>beds_t</t>
-  </si>
-  <si>
-    <t>infection_rate_t</t>
-  </si>
-  <si>
-    <t>future</t>
-  </si>
-  <si>
-    <t>threshold</t>
-  </si>
-  <si>
-    <t>future_t</t>
-  </si>
-  <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>group_gradient (constant in time)</t>
-  </si>
-  <si>
-    <t>time_gradient (groups are constant)</t>
-  </si>
-  <si>
-    <t>constant_gradient (groups and time constant)</t>
-  </si>
-  <si>
-    <t>Frequency</t>
+    <t>gradient</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,21 +84,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,34 +116,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,21 +463,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37.83203125" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,31 +504,13 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -611,18 +528,18 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>93767847574.492493</v>
+        <v>35758241744.460587</v>
       </c>
       <c r="I2">
-        <v>134673.93027836911</v>
+        <v>14.44838726626501</v>
       </c>
       <c r="J2">
-        <v>-50754953426.931198</v>
+        <v>35743254122.309471</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -643,21 +560,21 @@
         <v>12</v>
       </c>
       <c r="H3">
-        <v>24804034127.993881</v>
+        <v>28505732913.377499</v>
       </c>
       <c r="I3">
-        <v>434.25387486163072</v>
+        <v>10.612433542699261</v>
       </c>
       <c r="J3">
-        <v>24352223717.10059</v>
+        <v>28494719842.923382</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>0.5</v>
@@ -675,343 +592,48 @@
         <v>12</v>
       </c>
       <c r="H4">
-        <v>36455397819.538559</v>
+        <v>52325128164.530258</v>
       </c>
       <c r="I4">
-        <v>7368.2123285741291</v>
+        <v>21569.008527287158</v>
       </c>
       <c r="J4">
-        <v>28804408220.120201</v>
-      </c>
-      <c r="K4">
-        <v>500</v>
-      </c>
-      <c r="L4">
-        <v>5000</v>
-      </c>
-      <c r="M4">
-        <v>5.0000000000000001E-3</v>
+        <v>28356424282.470039</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
         <v>0.5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>1000000</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>3000</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5">
-        <v>36400000000</v>
-      </c>
-      <c r="I5" s="4">
-        <v>7007.6459999999997</v>
-      </c>
-      <c r="J5" s="5">
-        <v>29100000000</v>
-      </c>
-      <c r="N5">
-        <v>2800</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-      <c r="D6">
-        <v>1000000</v>
-      </c>
-      <c r="E6">
-        <v>3000</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>36445246323.996246</v>
-      </c>
-      <c r="I6">
-        <v>4939.1487498804718</v>
-      </c>
-      <c r="J6">
-        <v>31314427669.54649</v>
-      </c>
-      <c r="N6">
-        <v>2000</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <v>1000000</v>
-      </c>
-      <c r="E7">
-        <v>3000</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>38774224557.808647</v>
-      </c>
-      <c r="I7">
-        <v>6710.1255001878944</v>
-      </c>
-      <c r="J7">
-        <v>31806808703.802238</v>
-      </c>
-      <c r="N7">
-        <v>2800</v>
-      </c>
-      <c r="O7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="D8">
-        <v>1000000</v>
-      </c>
-      <c r="E8">
-        <v>3000</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8">
-        <v>36954584033.829903</v>
-      </c>
-      <c r="I8">
-        <v>4785.7034836313924</v>
-      </c>
-      <c r="J8">
-        <v>31982788319.627258</v>
-      </c>
-      <c r="N8">
-        <v>2000</v>
-      </c>
-      <c r="O8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="D11">
-        <v>1000000</v>
-      </c>
-      <c r="E11">
-        <v>3000</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11">
-        <v>34104899622.393902</v>
-      </c>
-      <c r="I11">
-        <v>437.44687771851488</v>
-      </c>
-      <c r="J11">
-        <v>33649775112.7024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>0.5</v>
-      </c>
-      <c r="D12">
-        <v>1000000</v>
-      </c>
-      <c r="E12">
-        <v>3000</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12">
-        <v>60461106081.383568</v>
-      </c>
-      <c r="I12">
-        <v>3119.504493402676</v>
-      </c>
-      <c r="J12">
-        <v>57218553560.461082</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>0.5</v>
-      </c>
-      <c r="D13">
-        <v>1000000</v>
-      </c>
-      <c r="E13">
-        <v>3000</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13">
-        <v>70810587667.787003</v>
-      </c>
-      <c r="I13">
-        <v>2262.4920928169599</v>
-      </c>
-      <c r="J13">
-        <v>73163183638.222305</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>0.5</v>
-      </c>
-      <c r="D14">
-        <v>1000000</v>
-      </c>
-      <c r="E14">
-        <v>3000</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14">
-        <v>76876326864.070999</v>
-      </c>
-      <c r="I14">
-        <v>3305.456428325152</v>
-      </c>
-      <c r="J14">
-        <v>73450218328.138458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="E15" s="4">
-        <v>3000</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="5">
-        <v>61100000000</v>
-      </c>
-      <c r="I15" s="4">
-        <v>2210.9499999999998</v>
-      </c>
-      <c r="J15" s="5">
-        <v>58800000000</v>
-      </c>
-      <c r="P15">
-        <v>9</v>
+      <c r="H5">
+        <v>48073584853.366074</v>
+      </c>
+      <c r="I5">
+        <v>1505.9818434975321</v>
+      </c>
+      <c r="J5">
+        <v>46500740721.576134</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O11">
-    <sortCondition ref="J2:J11"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/benchmarks/all_results.xlsx
+++ b/benchmarks/all_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergioacamelogomez/Dropbox/covid-optimization/benchmarks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB52DBD3-8BD3-BB40-9751-49D90079FA38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E8287B-59F9-8547-B058-BA5B0516DEEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50420" yWindow="3960" windowWidth="23000" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
   <si>
     <t>heuristic</t>
   </si>
@@ -49,6 +49,15 @@
     <t>reward</t>
   </si>
   <si>
+    <t>homogeneous</t>
+  </si>
+  <si>
+    <t>constant_gradient</t>
+  </si>
+  <si>
+    <t>age_threshold</t>
+  </si>
+  <si>
     <t>real</t>
   </si>
   <si>
@@ -58,10 +67,22 @@
     <t>full-open</t>
   </si>
   <si>
-    <t>homogeneous</t>
-  </si>
-  <si>
-    <t>gradient</t>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>time_gradient</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>age_gradient</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>act_threshold</t>
   </si>
 </sst>
 </file>
@@ -93,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,15 +137,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,20 +500,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,19 +544,26 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>0.5</v>
       </c>
       <c r="D2">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>3000</v>
@@ -525,30 +572,33 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>35758241744.460587</v>
+        <v>33919016853.327751</v>
       </c>
       <c r="I2">
-        <v>14.44838726626501</v>
+        <v>14629.322671764219</v>
       </c>
       <c r="J2">
-        <v>35743254122.309471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33072721253.164379</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>0.5</v>
       </c>
       <c r="D3">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>3000</v>
@@ -557,30 +607,33 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H3">
-        <v>28505732913.377499</v>
+        <v>26935209433.655312</v>
       </c>
       <c r="I3">
-        <v>10.612433542699261</v>
+        <v>12928.770164719759</v>
       </c>
       <c r="J3">
-        <v>28494719842.923382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>26173358286.538261</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0.5</v>
       </c>
       <c r="D4">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>3000</v>
@@ -589,24 +642,27 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>47250396939.545319</v>
+      </c>
+      <c r="I4">
+        <v>95292.65759120186</v>
+      </c>
+      <c r="J4">
+        <v>39706579384.235207</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="H4">
-        <v>52325128164.530258</v>
-      </c>
-      <c r="I4">
-        <v>21569.008527287158</v>
-      </c>
-      <c r="J4">
-        <v>28356424282.470039</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -621,19 +677,1285 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>33919016853.327751</v>
+      </c>
+      <c r="I5">
+        <v>14629.322671764219</v>
+      </c>
+      <c r="J5">
+        <v>18443398581.40015</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>1000000</v>
+      </c>
+      <c r="E6">
+        <v>3000</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>26935209433.655312</v>
+      </c>
+      <c r="I6">
+        <v>12928.770164719759</v>
+      </c>
+      <c r="J6">
+        <v>13244588121.818489</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>1000000</v>
+      </c>
+      <c r="E7">
+        <v>3000</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>47250396939.545319</v>
+      </c>
+      <c r="I7">
+        <v>95292.65759120186</v>
+      </c>
+      <c r="J7">
+        <v>-55586078206.966652</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3000</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2">
+        <v>47400000000</v>
+      </c>
+      <c r="I8">
+        <v>23550.79</v>
+      </c>
+      <c r="J8" s="2">
+        <v>45600000000</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>1000000</v>
+      </c>
+      <c r="E9">
+        <v>3000</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2">
+        <v>42200000000</v>
+      </c>
+      <c r="I9">
+        <v>14897.97</v>
+      </c>
+      <c r="J9" s="2">
+        <v>26300000000</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>3000</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>47422427630.050621</v>
+      </c>
+      <c r="I10">
+        <v>13229.92302346525</v>
+      </c>
+      <c r="J10">
+        <v>46255092716.899727</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <v>1000000</v>
+      </c>
+      <c r="E11">
+        <v>3000</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>45782763442.738083</v>
+      </c>
+      <c r="I11">
+        <v>11523.188472268381</v>
+      </c>
+      <c r="J11">
+        <v>33325366846.598122</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3000</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>47164160144.467567</v>
+      </c>
+      <c r="I12">
+        <v>21265.331447404631</v>
+      </c>
+      <c r="J12">
+        <v>45627327707.045776</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>1000000</v>
+      </c>
+      <c r="E13">
+        <v>3000</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>42182040351.196037</v>
+      </c>
+      <c r="I13">
+        <v>9699.7335335456883</v>
+      </c>
+      <c r="J13">
+        <v>32067035380.59219</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3000</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>44193988955.178467</v>
+      </c>
+      <c r="I14">
+        <v>17189.11425335885</v>
+      </c>
+      <c r="J14">
+        <v>43087274341.783913</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>1000000</v>
+      </c>
+      <c r="E15">
+        <v>3000</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>36696537054.786827</v>
+      </c>
+      <c r="I15">
+        <v>7601.0034591884132</v>
+      </c>
+      <c r="J15">
+        <v>28770396048.613979</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>3000</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>47406773483.702904</v>
+      </c>
+      <c r="I16">
+        <v>23550.789795682809</v>
+      </c>
+      <c r="J16">
+        <v>45578506876.76265</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>1000000</v>
+      </c>
+      <c r="E17">
+        <v>3000</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>41507575734.912628</v>
+      </c>
+      <c r="I17">
+        <v>10552.216288054609</v>
+      </c>
+      <c r="J17">
+        <v>30494856085.45118</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3000</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>45950114554.414833</v>
+      </c>
+      <c r="I18">
+        <v>15022.49486184906</v>
+      </c>
+      <c r="J18">
+        <v>44531807289.691162</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+      <c r="D19">
+        <v>1000000</v>
+      </c>
+      <c r="E19">
+        <v>3000</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>45807787805.116142</v>
+      </c>
+      <c r="I19">
+        <v>12912.01220393388</v>
+      </c>
+      <c r="J19">
+        <v>31777081779.135342</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3000</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>47414388419.730293</v>
+      </c>
+      <c r="I20">
+        <v>15680.706576749029</v>
+      </c>
+      <c r="J20">
+        <v>45949440161.657158</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+      <c r="D21">
+        <v>1000000</v>
+      </c>
+      <c r="E21">
+        <v>3000</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>47414388419.730293</v>
+      </c>
+      <c r="I21">
+        <v>15680.706576749029</v>
+      </c>
+      <c r="J21">
+        <v>30268733584.908119</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="H5">
-        <v>48073584853.366074</v>
-      </c>
-      <c r="I5">
-        <v>1505.9818434975321</v>
-      </c>
-      <c r="J5">
-        <v>46500740721.576134</v>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>3000</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>39077787182.649788</v>
+      </c>
+      <c r="I22">
+        <v>14629.322671764219</v>
+      </c>
+      <c r="J22">
+        <v>38231491582.486397</v>
+      </c>
+      <c r="K22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>3000</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>31436040299.933201</v>
+      </c>
+      <c r="I23">
+        <v>12928.770164719759</v>
+      </c>
+      <c r="J23">
+        <v>30674189152.816139</v>
+      </c>
+      <c r="K23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>0.5</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>3000</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <v>60865269290.379372</v>
+      </c>
+      <c r="I24">
+        <v>95292.65759120186</v>
+      </c>
+      <c r="J24">
+        <v>53321451735.069237</v>
+      </c>
+      <c r="K24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25">
+        <v>1000000</v>
+      </c>
+      <c r="E25">
+        <v>3000</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>39077787182.649788</v>
+      </c>
+      <c r="I25">
+        <v>14629.322671764219</v>
+      </c>
+      <c r="J25">
+        <v>23602168910.722179</v>
+      </c>
+      <c r="K25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="D26">
+        <v>1000000</v>
+      </c>
+      <c r="E26">
+        <v>3000</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>31436040299.933201</v>
+      </c>
+      <c r="I26">
+        <v>12928.770164719759</v>
+      </c>
+      <c r="J26">
+        <v>17745418988.096371</v>
+      </c>
+      <c r="K26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="D27">
+        <v>1000000</v>
+      </c>
+      <c r="E27">
+        <v>3000</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>60865269290.379372</v>
+      </c>
+      <c r="I27">
+        <v>95292.65759120186</v>
+      </c>
+      <c r="J27">
+        <v>-41971205856.132553</v>
+      </c>
+      <c r="K27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>3000</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <v>60865269290.379372</v>
+      </c>
+      <c r="I28">
+        <v>95292.65759120186</v>
+      </c>
+      <c r="J28">
+        <v>53321451735.069237</v>
+      </c>
+      <c r="K28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>0.5</v>
+      </c>
+      <c r="D29">
+        <v>1000000</v>
+      </c>
+      <c r="E29">
+        <v>3000</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>43112810491.992378</v>
+      </c>
+      <c r="I29">
+        <v>14752.069345249851</v>
+      </c>
+      <c r="J29">
+        <v>27449044711.930538</v>
+      </c>
+      <c r="K29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>3000</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="2">
+        <v>58000000000</v>
+      </c>
+      <c r="I30">
+        <v>47113.120000000003</v>
+      </c>
+      <c r="J30" s="2">
+        <v>54200000000</v>
+      </c>
+      <c r="K30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>0.5</v>
+      </c>
+      <c r="D31">
+        <v>1000000</v>
+      </c>
+      <c r="E31">
+        <v>3000</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="2">
+        <v>50100000000</v>
+      </c>
+      <c r="I31">
+        <v>12808.02</v>
+      </c>
+      <c r="J31" s="2">
+        <v>36300000000</v>
+      </c>
+      <c r="K31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>3000</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="2">
+        <v>59200000000</v>
+      </c>
+      <c r="I32">
+        <v>67159.710000000006</v>
+      </c>
+      <c r="J32" s="2">
+        <v>53600000000</v>
+      </c>
+      <c r="K32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>0.5</v>
+      </c>
+      <c r="D33">
+        <v>1000000</v>
+      </c>
+      <c r="E33">
+        <v>3000</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="2">
+        <v>47100000000</v>
+      </c>
+      <c r="I33">
+        <v>10223.709999999999</v>
+      </c>
+      <c r="J33" s="2">
+        <v>36500000000</v>
+      </c>
+      <c r="K33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>0.5</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>3000</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <v>44209277872.145973</v>
+      </c>
+      <c r="I34">
+        <v>17189.11425335885</v>
+      </c>
+      <c r="J34">
+        <v>43102563258.751389</v>
+      </c>
+      <c r="K34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>0.5</v>
+      </c>
+      <c r="D35">
+        <v>1000000</v>
+      </c>
+      <c r="E35">
+        <v>3000</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35">
+        <v>36706454390.999077</v>
+      </c>
+      <c r="I35">
+        <v>7601.0034591884132</v>
+      </c>
+      <c r="J35">
+        <v>28780313384.826221</v>
+      </c>
+      <c r="K35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>3000</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36">
+        <v>47424588113.592888</v>
+      </c>
+      <c r="I36">
+        <v>23550.789795682809</v>
+      </c>
+      <c r="J36">
+        <v>45596321506.652672</v>
+      </c>
+      <c r="K36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>0.5</v>
+      </c>
+      <c r="D37">
+        <v>1000000</v>
+      </c>
+      <c r="E37">
+        <v>3000</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37">
+        <v>41519600823.257607</v>
+      </c>
+      <c r="I37">
+        <v>10552.216288054609</v>
+      </c>
+      <c r="J37">
+        <v>30506881173.796131</v>
+      </c>
+      <c r="K37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>0.5</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>3000</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38">
+        <v>45967211064.028526</v>
+      </c>
+      <c r="I38">
+        <v>15022.49486184906</v>
+      </c>
+      <c r="J38">
+        <v>44548903799.304848</v>
+      </c>
+      <c r="K38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>0.5</v>
+      </c>
+      <c r="D39">
+        <v>1000000</v>
+      </c>
+      <c r="E39">
+        <v>3000</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39">
+        <v>45823710340.274017</v>
+      </c>
+      <c r="I39">
+        <v>12912.01220393388</v>
+      </c>
+      <c r="J39">
+        <v>31793004314.293209</v>
+      </c>
+      <c r="K39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>0.5</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>3000</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40">
+        <v>59150589195.75779</v>
+      </c>
+      <c r="I40">
+        <v>59167.471474686427</v>
+      </c>
+      <c r="J40">
+        <v>54363431522.156807</v>
+      </c>
+      <c r="K40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>0.5</v>
+      </c>
+      <c r="D41">
+        <v>1000000</v>
+      </c>
+      <c r="E41">
+        <v>3000</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41">
+        <v>51475882234.530861</v>
+      </c>
+      <c r="I41">
+        <v>17961.154063718979</v>
+      </c>
+      <c r="J41">
+        <v>31886322606.559761</v>
+      </c>
+      <c r="K41">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O9">
+    <sortCondition ref="J2:J9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>